--- a/Output/AllModels.xlsx
+++ b/Output/AllModels.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -50,34 +50,34 @@
     <t xml:space="preserve">Intercept</t>
   </si>
   <si>
-    <t xml:space="preserve">24.25*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[17.04, 34.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.98*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[104.97, 130.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 4.71,  5.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.64*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.37, 0.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.37,  13.35]</t>
+    <t xml:space="preserve">27.35*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21.03, 35.95]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.09*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[106.05, 131.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 4.52, 4.94]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.33,  0.70]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00,    0.18]</t>
   </si>
   <si>
     <t xml:space="preserve">Within-Person Effects</t>
@@ -86,634 +86,667 @@
     <t xml:space="preserve">Daily persuasion experienced</t>
   </si>
   <si>
+    <t xml:space="preserve">1.20*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.07,  1.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  1.00,   1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.03, 0.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.11,  0.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.26,    1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.06,  1.34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.99,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.02, 0.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.06,  0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.76,    6.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.71,  1.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.89,   1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.16, 0.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.04,  0.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.69,   60.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.88,  1.59]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.92,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.18, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.06,  0.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.33,   18.42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.92,  1.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.98,   1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.04, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.00,  0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.07,    6.63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.95,  1.36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.99,   1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.00, 0.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.10,  0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.21,    2.27]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.58,  1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.88,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.06, 0.38]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.17,  0.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.38,   43.96]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  1.00,   1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.83,  3.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.81,   1.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.26, 0.88]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.29,  0.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.90,  291.21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.62,  2.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.72,   1.29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.36, 0.80]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.25,  0.55]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.31,   91.34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.22,  1.11]</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.97</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.87,  1.07]</t>
+    <t xml:space="preserve">[  0.71,   1.34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.89, 0.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.21,  1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.06*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3.62, 5363.94]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.19,  0.96]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.72,   1.32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.89, 0.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.28,  0.58]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.15,  270.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.64,  4.56]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.66,   1.56]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.55, 1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.82,  0.27]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.10,  220.19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.76,  5.67]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.85,   1.96]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.41, 1.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.59*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-1.16, -0.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00,    3.21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean weartime</t>
   </si>
   <si>
     <t xml:space="preserve">1.00</t>
   </si>
   <si>
-    <t xml:space="preserve">[  0.98,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.03,  0.03]</t>
+    <t xml:space="preserve">Random Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.45, 0.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.46, 0.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.15, 0.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.86, 5.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.00, 0.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.00, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.03, 1.50]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.00, 0.21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.42, 2.95]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.01, 0.53]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.22, 0.62]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.11, 4.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.01, 0.49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 0.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.01, 0.63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.05, 3.81]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.02, 0.58]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.01, 0.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.05, 2.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.00, 0.32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.00, 0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.03, 2.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.94, 0.94]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.26, 0.33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.42, 0.48]</t>
   </si>
   <si>
     <t xml:space="preserve">0.01</t>
   </si>
   <si>
-    <t xml:space="preserve">[-0.04, 0.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.63,   2.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.95,  1.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.05,  0.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.11, 0.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.45,   2.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,  1.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.98,   1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.08,  0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.13, 0.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.25,   2.52]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.79,  1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.93,   1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.03,  0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.17, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.21,   4.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing experienced</t>
+    <t xml:space="preserve">[-0.08, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.16, 0.27]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.13, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sderr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 3.10, 9.31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.54, 0.57]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.85, 0.89]</t>
   </si>
   <si>
     <t xml:space="preserve">0.93</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.80,  1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.97,   1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.08,  0.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.07, 0.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.46,   2.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.79,  1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.99,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.09,  0.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.06, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.37,   2.54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.95,  1.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.94,   1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.25,  0.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.52, 0.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01,   2.98]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.72,  2.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.90,   1.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.13,  0.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.39, 0.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.08,  16.32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.71,  1.94]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.90,   1.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.06,  0.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.30, 0.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.10,  26.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,  3.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.72,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.37,  0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.07, 0.65]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.10,  33.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.28,  1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.74,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.28,  0.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.60, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05,  16.38]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.43*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.19,  0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.90,   1.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.60,  0.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.77, 0.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00,   5.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.29,  1.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.90,   1.38]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.43*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.83, -0.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.56, 0.60]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 106.85]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.51, 0.91]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.22, 0.38]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.49, 0.81]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.43, 0.76]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.96,  8.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.07, 0.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.17,  2.48]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.03, 0.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.07,  2.61]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.01, 0.44]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.28, 0.67]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.47,  5.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.01, 0.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.02, 0.58]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.04,  3.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.02, 0.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.00, 0.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.04,  2.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.01, 0.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.03,  2.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar[1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.93, 0.94]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.25, 0.32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.42, 0.48]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.07, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.09,  0.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.13, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sderr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.00, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 4.13, 10.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.54, 0.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.85, 0.89]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89, 0.99]</t>
+    <t xml:space="preserve">[ 0.88, 0.98]</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1242,7 @@
       <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1255,7 +1288,7 @@
       <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1290,223 +1323,223 @@
       <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
+      <c r="D12" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1517,260 +1550,260 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1781,357 +1814,357 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>216</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2146,13 +2179,13 @@
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2165,13 +2198,13 @@
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2180,35 +2213,35 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="4" t="s">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>124</v>
+        <v>241</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
